--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,37 +16,865 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>jesus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="284">
+  <si>
+    <t>pragadeeshwaran.1905312@srit.org</t>
+  </si>
+  <si>
+    <t>gokul.1905308@srit.org</t>
+  </si>
+  <si>
+    <t>naveen.1905020@srit.org</t>
+  </si>
+  <si>
+    <t>janakiram.1905011@srit.org</t>
+  </si>
+  <si>
+    <t>balaji.1905304@srit.org</t>
+  </si>
+  <si>
+    <t>Balaji N V</t>
+  </si>
+  <si>
+    <t>NAVEEN R</t>
+  </si>
+  <si>
+    <t>ebinesh.2002@srit.org</t>
+  </si>
+  <si>
+    <t>sakthikrishna002@gmail.com</t>
   </si>
   <si>
     <t>immangwu@gmail.com</t>
   </si>
   <si>
-    <t>jehovah jireh</t>
-  </si>
-  <si>
-    <t>immangwu.phd@gmail.com</t>
-  </si>
-  <si>
-    <t>holyspirit</t>
-  </si>
-  <si>
-    <t>immanual.me@srit.org</t>
-  </si>
-  <si>
-    <t>redwinsolomon@gmail.com</t>
-  </si>
-  <si>
-    <t>Edwin</t>
+    <t>Immanual R</t>
+  </si>
+  <si>
+    <t>divyaudayakumar14@gmail.com</t>
+  </si>
+  <si>
+    <t>Divya Udayakumar</t>
+  </si>
+  <si>
+    <t>adaikkalamk@gmail.com</t>
+  </si>
+  <si>
+    <t>ADAIKKALAM K</t>
+  </si>
+  <si>
+    <t>santhosh.ct19@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>SANTHOSH K V</t>
+  </si>
+  <si>
+    <t>krishbe95@gmail.com</t>
+  </si>
+  <si>
+    <t>M.SIVARAMKRISHNAN</t>
+  </si>
+  <si>
+    <t>vpsandhyaraam@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandhya VP</t>
+  </si>
+  <si>
+    <t>harithababu17@gmail.com</t>
+  </si>
+  <si>
+    <t>Haritha.B</t>
+  </si>
+  <si>
+    <t>uvpreethy@gmail.com</t>
+  </si>
+  <si>
+    <t>VIJAYAPREETHY UMAPATHY</t>
+  </si>
+  <si>
+    <t>sowndar95@gmail.com</t>
+  </si>
+  <si>
+    <t>SOWNDARYAN.V</t>
+  </si>
+  <si>
+    <t>SHREENILA.BT20@BITSATHY.AC.IN</t>
+  </si>
+  <si>
+    <t>SHREENILA N R</t>
+  </si>
+  <si>
+    <t>sivaram0699@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.M.Siva Ramkumar</t>
+  </si>
+  <si>
+    <t>Gokularasa R</t>
+  </si>
+  <si>
+    <t>subikshap461@gmail.com</t>
+  </si>
+  <si>
+    <t>SUBIKSHA.P</t>
+  </si>
+  <si>
+    <t>jeevanandham.2006@srit.org</t>
+  </si>
+  <si>
+    <t>JEEVANANDHAM T</t>
+  </si>
+  <si>
+    <t>prasanthsbme@gmail.com</t>
+  </si>
+  <si>
+    <t>S.PRASANTH</t>
+  </si>
+  <si>
+    <t>ragul.ct20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>RAGUL.S</t>
+  </si>
+  <si>
+    <t>amsavenisivakumar04@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.R.Amsaveni</t>
+  </si>
+  <si>
+    <t>Karthikeyandhanapal04@gmail.com</t>
+  </si>
+  <si>
+    <t>KARTHIKEYAN D</t>
+  </si>
+  <si>
+    <t>sundarrajug@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>Sundar raju G</t>
+  </si>
+  <si>
+    <t>balaji.ntu@gmail.com</t>
+  </si>
+  <si>
+    <t>Balaji D</t>
+  </si>
+  <si>
+    <t>navaneethanvs16@gmail.com</t>
+  </si>
+  <si>
+    <t>Navaneethan kv</t>
+  </si>
+  <si>
+    <t>aarthym23k@gmail.com</t>
+  </si>
+  <si>
+    <t>Aarthy. K</t>
+  </si>
+  <si>
+    <t>sathyarv284@gmail.com</t>
+  </si>
+  <si>
+    <t>Ms.V.Sakthipriya</t>
+  </si>
+  <si>
+    <t>mazharali20020830@gmail.com</t>
+  </si>
+  <si>
+    <t>Mazhar Ali</t>
+  </si>
+  <si>
+    <t>gulaalkesar18@gmail.com</t>
+  </si>
+  <si>
+    <t>GAYATHRI G</t>
+  </si>
+  <si>
+    <t>ananthakarthikeyan.bt20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>ANANTHA KARTHIKEYAN B</t>
+  </si>
+  <si>
+    <t>kodeesheswaran@gmail.com</t>
+  </si>
+  <si>
+    <t>E.KODEESHWARI</t>
+  </si>
+  <si>
+    <t>gunavathie.ap@gmail.com</t>
+  </si>
+  <si>
+    <t>Gunavathie M A</t>
+  </si>
+  <si>
+    <t>kanishka.bt20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>KANISHKA S</t>
+  </si>
+  <si>
+    <t>csejenitha@ametuniv.ac.in</t>
+  </si>
+  <si>
+    <t>J.Jenitha</t>
+  </si>
+  <si>
+    <t>PRAGADEESHWARAN K</t>
+  </si>
+  <si>
+    <t>azharasif46@gmail.com</t>
+  </si>
+  <si>
+    <t>Md Azhar Asif</t>
+  </si>
+  <si>
+    <t>shankar@srptc.ac.in</t>
+  </si>
+  <si>
+    <t>SHANKAR C K</t>
+  </si>
+  <si>
+    <t>swashthika.ct19@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>SWASHTHIKA A K</t>
+  </si>
+  <si>
+    <t>munirajyashica@gmail.com</t>
+  </si>
+  <si>
+    <t>M.Yashica</t>
+  </si>
+  <si>
+    <t>mahasweta.bt20@gmail.com</t>
+  </si>
+  <si>
+    <t>MAHA SWETA S</t>
+  </si>
+  <si>
+    <t>raginiravi465@gmail.com</t>
+  </si>
+  <si>
+    <t>Ragini R</t>
+  </si>
+  <si>
+    <t>prabhu.e9945@cumail.in</t>
+  </si>
+  <si>
+    <t>Mr.PRABHU D</t>
+  </si>
+  <si>
+    <t>benjamindavid03@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. H. Benjamin Fredrick David</t>
+  </si>
+  <si>
+    <t>V.K.SAKTHI PRASHANTH</t>
+  </si>
+  <si>
+    <t>Www.vishnuvarthiny100@gmail.com</t>
+  </si>
+  <si>
+    <t>E.vishnuvarthini</t>
+  </si>
+  <si>
+    <t>elakkiyatamil445@gmail.com</t>
+  </si>
+  <si>
+    <t>Tamililakkiya</t>
+  </si>
+  <si>
+    <t>vasavi.ct19@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>VASAVI S</t>
+  </si>
+  <si>
+    <t>baskarsrkv@gmail.com</t>
+  </si>
+  <si>
+    <t>BASKAR N</t>
+  </si>
+  <si>
+    <t>itsbharathig@gmail.com</t>
+  </si>
+  <si>
+    <t>Bharathi G</t>
+  </si>
+  <si>
+    <t>ushusj@srmist.edu.in</t>
+  </si>
+  <si>
+    <t>Dr.Ushus.S.Kumar</t>
+  </si>
+  <si>
+    <t>abineshabiniya2000@gmail.com</t>
+  </si>
+  <si>
+    <t>S.ABINESH</t>
+  </si>
+  <si>
+    <t>vasukideviram@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.Vasukidevi Ramachandran</t>
+  </si>
+  <si>
+    <t>vidyar3189@gmail.com</t>
+  </si>
+  <si>
+    <t>Vidyalakshmi R</t>
+  </si>
+  <si>
+    <t>brindha.bt20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>Brindha B</t>
+  </si>
+  <si>
+    <t>Selvamuthukumaran.ag20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>Selva Muthu Kumaran S</t>
+  </si>
+  <si>
+    <t>santhasheela1@gmail.com</t>
+  </si>
+  <si>
+    <t>R.Shanth Sheela</t>
+  </si>
+  <si>
+    <t>sanjai.ct19@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>SANJAI B</t>
+  </si>
+  <si>
+    <t>balajilink@gmail.com</t>
+  </si>
+  <si>
+    <t>M. BALAJI</t>
+  </si>
+  <si>
+    <t>sanjay.ct19@bitsathyac.in</t>
+  </si>
+  <si>
+    <t>SANJAY S U</t>
+  </si>
+  <si>
+    <t>balajip.bt20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>BALAJI P</t>
+  </si>
+  <si>
+    <t>lrkln27@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.L.Rajeshkumar</t>
+  </si>
+  <si>
+    <t>ameerkhan.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>AMEER KHAN B</t>
+  </si>
+  <si>
+    <t>kalyani.sh@srit.org</t>
+  </si>
+  <si>
+    <t>Dr.S.Kalyani</t>
+  </si>
+  <si>
+    <t>ashwathy.pv@kce.ac.in</t>
+  </si>
+  <si>
+    <t>P V Ashwathy Devraj</t>
+  </si>
+  <si>
+    <t>swashthii@gmail.com</t>
+  </si>
+  <si>
+    <t>ashikakrishnan08@gmail.com</t>
+  </si>
+  <si>
+    <t>ASHIKA K</t>
+  </si>
+  <si>
+    <t>bhuvanashankar82@gmail.com</t>
+  </si>
+  <si>
+    <t>Bhuvaneswari.V</t>
+  </si>
+  <si>
+    <t>revathi.ct20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>REVATHI R</t>
+  </si>
+  <si>
+    <t>boominathan.1905305@srit.org</t>
+  </si>
+  <si>
+    <t>Boominathan</t>
+  </si>
+  <si>
+    <t>mails2madhu.s@gmail.com</t>
+  </si>
+  <si>
+    <t>S.Madhumitha</t>
+  </si>
+  <si>
+    <t>dineshwar.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>DINESHWAR G</t>
+  </si>
+  <si>
+    <t>emayam1989@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.G.Emayavaramban</t>
+  </si>
+  <si>
+    <t>smkanimozhisampath@gmail.com</t>
+  </si>
+  <si>
+    <t>Kanimozhi S</t>
+  </si>
+  <si>
+    <t>raswanth.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>RASWANTH R T</t>
+  </si>
+  <si>
+    <t>ganeshkumar.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>GANESHKUMAR L</t>
+  </si>
+  <si>
+    <t>shivasace@gmail.com</t>
+  </si>
+  <si>
+    <t>SATHIYASIVAM.B</t>
+  </si>
+  <si>
+    <t>gowthaman.me19@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>K.S.GOWTHAMAN</t>
+  </si>
+  <si>
+    <t>sivagurukarthick@gmail.com</t>
+  </si>
+  <si>
+    <t>R.SIVAGURU</t>
+  </si>
+  <si>
+    <t>jayanthi.k88@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.K.Jayanthi</t>
+  </si>
+  <si>
+    <t>Ebinesh A.</t>
+  </si>
+  <si>
+    <t>bhuvana_bt@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Dr. V.Bhuvaneshwari</t>
+  </si>
+  <si>
+    <t>sakthikm@psgcas.ac.in</t>
+  </si>
+  <si>
+    <t>Dr.K.M.Sakthivel</t>
+  </si>
+  <si>
+    <t>ahamedhussain.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>AHAMED HUSSAIN A</t>
+  </si>
+  <si>
+    <t>dhanush.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>DHANUSH M</t>
+  </si>
+  <si>
+    <t>sdevi_34@yahoo.in</t>
+  </si>
+  <si>
+    <t>S.Devi</t>
+  </si>
+  <si>
+    <t>Dr. R. Amsaveni</t>
+  </si>
+  <si>
+    <t>abinesh.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>ABINESH R</t>
+  </si>
+  <si>
+    <t>dhanamurugan.bt18@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>DHANAMURUGAN V</t>
+  </si>
+  <si>
+    <t>jebinboses@gmail.com</t>
+  </si>
+  <si>
+    <t>Jebin Bose S</t>
+  </si>
+  <si>
+    <t>kingkarthikeyan04@gmail.com</t>
+  </si>
+  <si>
+    <t>mohanbaa@srmist.edu.in</t>
+  </si>
+  <si>
+    <t>Dr.A. Mohanbabu</t>
+  </si>
+  <si>
+    <t>krishnaselva029@gmail.com</t>
+  </si>
+  <si>
+    <t>KRISHNAMURTHY. B</t>
+  </si>
+  <si>
+    <t>dharanidharan.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>DHARANIDHARAN S</t>
+  </si>
+  <si>
+    <t>jayasri.bt20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>JAYASRI S</t>
+  </si>
+  <si>
+    <t>marimuhu.it@srit.org</t>
+  </si>
+  <si>
+    <t>MARIMUTHU M</t>
+  </si>
+  <si>
+    <t>faizalkhan.bt19@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>FAIZAL KHAN S</t>
+  </si>
+  <si>
+    <t>sindhusaraswathi2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Sindhu .M</t>
+  </si>
+  <si>
+    <t>nivethakeerthi2002@gmail.com</t>
+  </si>
+  <si>
+    <t>NIVETHA.A</t>
+  </si>
+  <si>
+    <t>suyamprakasham421@gmail.com</t>
+  </si>
+  <si>
+    <t>Suyamprakasham.M</t>
+  </si>
+  <si>
+    <t>TAMILILAKKIYA.T</t>
+  </si>
+  <si>
+    <t>jesjeni94@gmail.com</t>
+  </si>
+  <si>
+    <t>V.Jesline Jeme</t>
+  </si>
+  <si>
+    <t>balakumaran31743bk@gmail.com</t>
+  </si>
+  <si>
+    <t>Balakumaran.N</t>
+  </si>
+  <si>
+    <t>mohanamathi2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohanamathi.G</t>
+  </si>
+  <si>
+    <t>jsugan94@gmail.com</t>
+  </si>
+  <si>
+    <t>SUGAN J</t>
+  </si>
+  <si>
+    <t>sountherappavu@gmail.com</t>
+  </si>
+  <si>
+    <t>SOUNTHERARAJAN A</t>
+  </si>
+  <si>
+    <t>arulmurugan@kpriet.ac.in</t>
+  </si>
+  <si>
+    <t>Dr.B.Arulmurugan</t>
+  </si>
+  <si>
+    <t>ultraprakash@gmail.com</t>
+  </si>
+  <si>
+    <t>M K Prakash</t>
+  </si>
+  <si>
+    <t>arunkumarmsster@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr M S ARUNKUMAR</t>
+  </si>
+  <si>
+    <t>sangeetha1152002@gmail.com</t>
+  </si>
+  <si>
+    <t>SANGEETHA A</t>
+  </si>
+  <si>
+    <t>sk.mullai@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. K. Mullai Nila</t>
+  </si>
+  <si>
+    <t>nanda14032001@gmail.com</t>
+  </si>
+  <si>
+    <t>Nandakumar R</t>
+  </si>
+  <si>
+    <t>kesa17219.ec@rmkec.ac.in</t>
+  </si>
+  <si>
+    <t>Kesava Amalesh.R.C</t>
+  </si>
+  <si>
+    <t>vinivinz94@gmail.com</t>
+  </si>
+  <si>
+    <t>K.MUNESHWARI VINEETHA</t>
+  </si>
+  <si>
+    <t>nagendran.it@srit.org</t>
+  </si>
+  <si>
+    <t>Dr.R.Nagendran</t>
+  </si>
+  <si>
+    <t>gnivetha46@gmail.com</t>
+  </si>
+  <si>
+    <t>NIVETHA .G</t>
+  </si>
+  <si>
+    <t>sangavi73@gmali.com</t>
+  </si>
+  <si>
+    <t>Sangavi D</t>
+  </si>
+  <si>
+    <t>sanjayk.bt19@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>SANJAY K</t>
+  </si>
+  <si>
+    <t>vinodhini.1802128@srit.org</t>
+  </si>
+  <si>
+    <t>VINODHINI P</t>
+  </si>
+  <si>
+    <t>msmonishree@gmail.com</t>
+  </si>
+  <si>
+    <t>Monishree MS</t>
+  </si>
+  <si>
+    <t>Janakiram.G</t>
+  </si>
+  <si>
+    <t>jana17201.ec@rmkec.ac.in</t>
+  </si>
+  <si>
+    <t>Janani.T</t>
+  </si>
+  <si>
+    <t>balajiar2000@gmail.com</t>
+  </si>
+  <si>
+    <t>Balaji A</t>
+  </si>
+  <si>
+    <t>vybhole@acpce.ac.in</t>
+  </si>
+  <si>
+    <t>Varsha Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>maneshmanesh094@gmail.com</t>
+  </si>
+  <si>
+    <t>Maneshwaran.B</t>
+  </si>
+  <si>
+    <t>jayakumar@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>JAYAKUMAR N</t>
+  </si>
+  <si>
+    <t>sethulovablewarrior@gmail.com</t>
+  </si>
+  <si>
+    <t>SETHUPATHY P</t>
+  </si>
+  <si>
+    <t>mounicam1995@gmail.com</t>
+  </si>
+  <si>
+    <t>M. Mounica</t>
+  </si>
+  <si>
+    <t>akpriy@gmail.com</t>
+  </si>
+  <si>
+    <t>Priya A K</t>
+  </si>
+  <si>
+    <t>sathish290520@gmail.com</t>
+  </si>
+  <si>
+    <t>M.Sathish kumar</t>
+  </si>
+  <si>
+    <t>Panner01022001@gmail.com</t>
+  </si>
+  <si>
+    <t>PANNER SELVAM K</t>
+  </si>
+  <si>
+    <t>soundarraj28@gmail.com</t>
+  </si>
+  <si>
+    <t>SOUNDARRAJ K</t>
+  </si>
+  <si>
+    <t>gowthammec2000@gmail.com</t>
+  </si>
+  <si>
+    <t>Gowtham M</t>
+  </si>
+  <si>
+    <t>amp.nithish27@gmail.com</t>
+  </si>
+  <si>
+    <t>NiTHISH P</t>
+  </si>
+  <si>
+    <t>kishore.ct19@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>Kishore D</t>
+  </si>
+  <si>
+    <t>padmarpriyav@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.V.Padmapriya</t>
+  </si>
+  <si>
+    <t>kalaiarasu2787@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.T.Kalaiyarasu</t>
+  </si>
+  <si>
+    <t>venkatesh.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>VENKATESH K</t>
+  </si>
+  <si>
+    <t>Sindhu.M</t>
+  </si>
+  <si>
+    <t>gteniyan@gmail.com</t>
+  </si>
+  <si>
+    <t>TAMIZINIYAN G</t>
+  </si>
+  <si>
+    <t>karthikeyan.k@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. K. KARTHIKEYAN</t>
+  </si>
+  <si>
+    <t>pj9630@srmist.edu.in</t>
+  </si>
+  <si>
+    <t>Porkodi. J</t>
+  </si>
+  <si>
+    <t>sakthisri86@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. N. Sridevi</t>
+  </si>
+  <si>
+    <t>sivasakthiselvans.sse@saveetha.com</t>
+  </si>
+  <si>
+    <t>Dr. S. Sivasakthiselvan</t>
+  </si>
+  <si>
+    <t>microjanu@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>DR.V.JANAKIDEVI</t>
+  </si>
+  <si>
+    <t>Dr.S.SIVASAKTHISELVAN</t>
+  </si>
+  <si>
+    <t>bhuvanasanjeev.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>BHUVANASANJEEV V</t>
+  </si>
+  <si>
+    <t>vigneshanand.ee20@bitsathy.ac.in</t>
+  </si>
+  <si>
+    <t>VIGNESHANAND M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,6 +888,29 @@
       <name val="Bookman Old Style"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +920,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,18 +928,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 3" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,67 +1269,1672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B121" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B130" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C130" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
